--- a/Misc/Suppl. Table 1 - OverviewOfData.xlsx
+++ b/Misc/Suppl. Table 1 - OverviewOfData.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Information" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Mutual Exclusivity (Somatic)" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Prediction" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Mutual Exclusivity (Somatic)'!$A$2:$H$29</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Prediction!$A$1:$E$35</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Sample Information'!$A$1:$AD$156</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sample Information'!$A$1:$V$156</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="1015">
   <si>
     <t xml:space="preserve">sampleId</t>
   </si>
@@ -3059,6 +3061,18 @@
   </si>
   <si>
     <t xml:space="preserve">41.6% vs. 42.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predicted_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probability_BadResponder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probability_GoodResponder</t>
   </si>
 </sst>
 </file>
@@ -3286,6 +3300,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MetaData" displayName="MetaData" ref="A1:AD156" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="30">
@@ -3330,11 +3348,11 @@
   </sheetPr>
   <dimension ref="A1:AD156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G56" activeCellId="0" sqref="G56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G99" activeCellId="0" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17380,7 +17398,7 @@
       <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.17"/>
@@ -18145,4 +18163,631 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.91"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>859</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.509474431771958</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.490525568228042</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>753</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.169795557035887</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.830204442964113</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.277715768772329</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.722284231227671</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.17018680201069</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.82981319798931</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.235695605239453</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.764304394760547</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.463076231201002</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.536923768798999</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.319015504378561</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.680984495621439</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>725</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.406771723774869</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.59322827622513</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>703</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.397525496007224</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.602474503992776</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.534970330391525</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.465029669608475</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.876371627318165</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.123628372681835</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.989888677108304</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.0101113228916955</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.519623183192737</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.480376816807263</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.869606340050119</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.130393659949881</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.844756313500011</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.155243686499989</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.900037725194272</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.0999622748057277</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.659841437194963</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.340158562805037</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.959659311336949</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.040340688663051</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.996542586397771</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.00345741360222929</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.412163801953486</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.587836198046514</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.477615122533391</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.522384877466609</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.299990515160037</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.700009484839963</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.355725243028959</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.644274756971041</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.326690362591261</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.673309637408739</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.485436606679426</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.514563393320574</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.488019034001267</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.511980965998733</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.338979935675589</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.661020064324411</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.224689179309241</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.775310820690759</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0.861330350104291</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.138669649895709</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.611026436540181</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.388973563459819</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.747345039059196</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.252654960940804</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.264668050586832</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.735331949413168</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.290422929879076</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.709577070120924</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.326501765025237</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.673498234974763</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E35"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Misc/Suppl. Table 1 - OverviewOfData.xlsx
+++ b/Misc/Suppl. Table 1 - OverviewOfData.xlsx
@@ -3179,7 +3179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3218,6 +3218,22 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3352,7 +3368,7 @@
       <selection pane="topLeft" activeCell="G99" activeCellId="0" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17398,7 +17414,7 @@
       <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.17"/>
@@ -18170,193 +18186,203 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>859</v>
+      <c r="A2" s="12" t="s">
+        <v>484</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0.509474431771958</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.490525568228042</v>
-      </c>
+      <c r="D2" s="13" t="n">
+        <v>0.997508318</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>0.002491682</v>
+      </c>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>753</v>
+      <c r="A3" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.169795557035887</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.830204442964113</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D3" s="13" t="n">
+        <v>0.98646046</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>0.01353954</v>
+      </c>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>585</v>
+      <c r="A4" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.277715768772329</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.722284231227671</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>0.96671805</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>0.03328195</v>
+      </c>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>765</v>
+      <c r="A5" s="12" t="s">
+        <v>567</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.17018680201069</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0.82981319798931</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D5" s="13" t="n">
+        <v>0.909960932</v>
+      </c>
+      <c r="E5" s="13" t="n">
+        <v>0.090039068</v>
+      </c>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>820</v>
+      <c r="A6" s="12" t="s">
+        <v>350</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.235695605239453</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0.764304394760547</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>0.89910488</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>0.10089512</v>
+      </c>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>673</v>
+      <c r="A7" s="12" t="s">
+        <v>531</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0.463076231201002</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.536923768798999</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>0.896373614</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>0.103626386</v>
+      </c>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>597</v>
+      <c r="A8" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0.319015504378561</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0.680984495621439</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>0.864260406</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.135739594</v>
+      </c>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>725</v>
+      <c r="A9" s="12" t="s">
+        <v>548</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0.406771723774869</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.59322827622513</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>0.81469916</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>0.18530084</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>703</v>
+      <c r="A10" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0.397525496007224</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0.602474503992776</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>0.804467061</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>0.195532939</v>
+      </c>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>542</v>
+      <c r="A11" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>432</v>
@@ -18364,49 +18390,52 @@
       <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0.534970330391525</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0.465029669608475</v>
-      </c>
+      <c r="D11" s="13" t="n">
+        <v>0.69608796</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>0.30391204</v>
+      </c>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>531</v>
+      <c r="A12" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>0.876371627318165</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0.123628372681835</v>
-      </c>
+      <c r="D12" s="13" t="n">
+        <v>0.650283407</v>
+      </c>
+      <c r="E12" s="13" t="n">
+        <v>0.349716593</v>
+      </c>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>537</v>
+      <c r="A13" s="12" t="s">
+        <v>859</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0.989888677108304</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0.0101113228916955</v>
-      </c>
+      <c r="D13" s="13" t="n">
+        <v>0.577504073</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>0.422495927</v>
+      </c>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="12" t="s">
         <v>495</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -18415,16 +18444,17 @@
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0.519623183192737</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0.480376816807263</v>
-      </c>
+      <c r="D14" s="13" t="n">
+        <v>0.564671494</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>0.435328506</v>
+      </c>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>548</v>
+      <c r="A15" s="12" t="s">
+        <v>461</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>432</v>
@@ -18432,16 +18462,17 @@
       <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0.869606340050119</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0.130393659949881</v>
-      </c>
+      <c r="D15" s="13" t="n">
+        <v>0.550885052</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>0.449114948</v>
+      </c>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>444</v>
+      <c r="A16" s="12" t="s">
+        <v>438</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>432</v>
@@ -18449,16 +18480,17 @@
       <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>0.844756313500011</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0.155243686499989</v>
-      </c>
+      <c r="D16" s="13" t="n">
+        <v>0.547552092</v>
+      </c>
+      <c r="E16" s="13" t="n">
+        <v>0.452447908</v>
+      </c>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>567</v>
+      <c r="A17" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>432</v>
@@ -18466,67 +18498,71 @@
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>0.900037725194272</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0.0999622748057277</v>
-      </c>
+      <c r="D17" s="13" t="n">
+        <v>0.532935449</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <v>0.467064551</v>
+      </c>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>479</v>
+      <c r="A18" s="12" t="s">
+        <v>673</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>0.659841437194963</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0.340158562805037</v>
-      </c>
+      <c r="D18" s="13" t="n">
+        <v>0.515071539</v>
+      </c>
+      <c r="E18" s="13" t="n">
+        <v>0.484928461</v>
+      </c>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>467</v>
+      <c r="A19" s="12" t="s">
+        <v>703</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0.959659311336949</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0.040340688663051</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D19" s="13" t="n">
+        <v>0.455492329</v>
+      </c>
+      <c r="E19" s="13" t="n">
+        <v>0.544507671</v>
+      </c>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>484</v>
+      <c r="A20" s="12" t="s">
+        <v>431</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>432</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0.996542586397771</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>0.00345741360222929</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D20" s="13" t="n">
+        <v>0.45455772</v>
+      </c>
+      <c r="E20" s="13" t="n">
+        <v>0.54544228</v>
+      </c>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>431</v>
+      <c r="A21" s="12" t="s">
+        <v>542</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>432</v>
@@ -18534,16 +18570,17 @@
       <c r="C21" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0.412163801953486</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0.587836198046514</v>
-      </c>
+      <c r="D21" s="13" t="n">
+        <v>0.434407026</v>
+      </c>
+      <c r="E21" s="13" t="n">
+        <v>0.565592974</v>
+      </c>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>438</v>
+      <c r="A22" s="12" t="s">
+        <v>519</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>432</v>
@@ -18551,33 +18588,35 @@
       <c r="C22" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0.477615122533391</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0.522384877466609</v>
-      </c>
+      <c r="D22" s="13" t="n">
+        <v>0.41470207</v>
+      </c>
+      <c r="E22" s="13" t="n">
+        <v>0.58529793</v>
+      </c>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>449</v>
+      <c r="A23" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0.299990515160037</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0.700009484839963</v>
-      </c>
+      <c r="D23" s="13" t="n">
+        <v>0.388950228</v>
+      </c>
+      <c r="E23" s="13" t="n">
+        <v>0.611049772</v>
+      </c>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>519</v>
+      <c r="A24" s="12" t="s">
+        <v>449</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>432</v>
@@ -18585,84 +18624,89 @@
       <c r="C24" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>0.355725243028959</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0.644274756971041</v>
-      </c>
+      <c r="D24" s="13" t="n">
+        <v>0.361620299</v>
+      </c>
+      <c r="E24" s="13" t="n">
+        <v>0.638379701</v>
+      </c>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>554</v>
+      <c r="A25" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>0.326690362591261</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0.673309637408739</v>
-      </c>
+      <c r="D25" s="13" t="n">
+        <v>0.347129588</v>
+      </c>
+      <c r="E25" s="13" t="n">
+        <v>0.652870412</v>
+      </c>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>461</v>
+      <c r="A26" s="12" t="s">
+        <v>725</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>0.485436606679426</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0.514563393320574</v>
-      </c>
+      <c r="D26" s="13" t="n">
+        <v>0.335307318</v>
+      </c>
+      <c r="E26" s="13" t="n">
+        <v>0.664692682</v>
+      </c>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>455</v>
+      <c r="A27" s="12" t="s">
+        <v>585</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>0.488019034001267</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0.511980965998733</v>
-      </c>
+      <c r="D27" s="13" t="n">
+        <v>0.330717431</v>
+      </c>
+      <c r="E27" s="13" t="n">
+        <v>0.669282569</v>
+      </c>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>560</v>
+      <c r="A28" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>0.338979935675589</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0.661020064324411</v>
-      </c>
+      <c r="D28" s="13" t="n">
+        <v>0.31828932</v>
+      </c>
+      <c r="E28" s="13" t="n">
+        <v>0.68171068</v>
+      </c>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>525</v>
+      <c r="A29" s="12" t="s">
+        <v>560</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>432</v>
@@ -18670,114 +18714,121 @@
       <c r="C29" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>0.224689179309241</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0.775310820690759</v>
-      </c>
+      <c r="D29" s="13" t="n">
+        <v>0.269663185</v>
+      </c>
+      <c r="E29" s="13" t="n">
+        <v>0.730336815</v>
+      </c>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>350</v>
+      <c r="A30" s="12" t="s">
+        <v>554</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>432</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0.861330350104291</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0.138669649895709</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D30" s="13" t="n">
+        <v>0.258781969</v>
+      </c>
+      <c r="E30" s="13" t="n">
+        <v>0.741218031</v>
+      </c>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>60</v>
+      <c r="A31" s="12" t="s">
+        <v>597</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>580</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0.611026436540181</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0.388973563459819</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D31" s="13" t="n">
+        <v>0.253676253</v>
+      </c>
+      <c r="E31" s="13" t="n">
+        <v>0.746323747</v>
+      </c>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>112</v>
+      <c r="A32" s="12" t="s">
+        <v>753</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>580</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0.747345039059196</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0.252654960940804</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D32" s="13" t="n">
+        <v>0.213668262</v>
+      </c>
+      <c r="E32" s="13" t="n">
+        <v>0.786331738</v>
+      </c>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>367</v>
+      <c r="A33" s="12" t="s">
+        <v>820</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>580</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>0.264668050586832</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0.735331949413168</v>
-      </c>
+      <c r="D33" s="13" t="n">
+        <v>0.180958032</v>
+      </c>
+      <c r="E33" s="13" t="n">
+        <v>0.819041968</v>
+      </c>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>73</v>
+      <c r="A34" s="12" t="s">
+        <v>525</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>432</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>0.290422929879076</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0.709577070120924</v>
-      </c>
+      <c r="D34" s="13" t="n">
+        <v>0.176736707</v>
+      </c>
+      <c r="E34" s="13" t="n">
+        <v>0.823263293</v>
+      </c>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>334</v>
+      <c r="A35" s="12" t="s">
+        <v>765</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>580</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>0.326501765025237</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0.673498234974763</v>
-      </c>
+      <c r="D35" s="13" t="n">
+        <v>0.130381384</v>
+      </c>
+      <c r="E35" s="13" t="n">
+        <v>0.869618616</v>
+      </c>
+      <c r="G35" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E35"/>

--- a/Misc/Suppl. Table 1 - OverviewOfData.xlsx
+++ b/Misc/Suppl. Table 1 - OverviewOfData.xlsx
@@ -14,9 +14,10 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Mutual Exclusivity (Somatic)'!$A$2:$H$29</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Prediction!$A$1:$E$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Prediction!$A$1:$H$35</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Sample Information'!$A$1:$AD$156</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sample Information'!$A$1:$V$156</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="1021">
   <si>
     <t xml:space="preserve">sampleId</t>
   </si>
@@ -3063,16 +3064,52 @@
     <t xml:space="preserve">41.6% vs. 42.2%</t>
   </si>
   <si>
-    <t xml:space="preserve">true_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">predicted_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probability_BadResponder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">probability_GoodResponder</t>
+    <t xml:space="preserve">ResponderClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pred_label_genomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_genomics_BadResponder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_genomics_GoodResponder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pred_label_genomicsWithClinVars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_genomicsWithClinVars_BadResponder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_genomicsWithClinVars_GoodResponder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambiguous Prediction</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Predicted - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Bad Responder</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Predicted - Good Responder</t>
   </si>
 </sst>
 </file>
@@ -3086,7 +3123,7 @@
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3116,6 +3153,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3179,7 +3237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3220,20 +3278,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3364,11 +3418,11 @@
   </sheetPr>
   <dimension ref="A1:AD156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G99" activeCellId="0" sqref="G99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -17414,7 +17468,7 @@
       <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.17"/>
@@ -18186,22 +18240,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="25.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="24.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="31.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="32.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="10" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -18217,621 +18275,902 @@
       <c r="E1" s="11" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <v>0.496363568594067</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <v>0.503636431405933</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <v>0.408978599527077</v>
+      </c>
+      <c r="H2" s="10" t="n">
+        <v>0.591021400472923</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.547895248661872</v>
+      </c>
+      <c r="E3" s="10" t="n">
+        <v>0.452104751338128</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>0.459562270032153</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0.540437729967847</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.570532070286666</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>0.429467929713334</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>0.483631658912777</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0.516368341087223</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.585631426242663</v>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>0.414368573757337</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.487537013335777</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.512462986664223</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.632336488692626</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>0.367663511307374</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0.510549056746082</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0.489450943253918</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.220863826666883</v>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>0.779136173333117</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0.411853001098443</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0.588146998901556</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>0.281752303275959</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>0.718247696724041</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0.489218654963246</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0.510781345036754</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>0.302535014941915</v>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>0.697464985058085</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0.520535310389909</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0.479464689610091</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>0.317704722323526</v>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>0.682295277676474</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0.535753738548132</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>0.464246261451868</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>0.439526180833135</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>0.560473819166865</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0.660251391088595</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>0.339748608911405</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0.816953009762842</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>0.183046990237158</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0.7698551328205</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>0.2301448671795</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D13" s="10" t="n">
+        <v>0.704011655739848</v>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>0.295988344260152</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0.845481839163603</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>0.154518160836397</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <v>0.763113566876281</v>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>0.236886433123719</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>0.870425323997699</v>
+      </c>
+      <c r="H14" s="10" t="n">
+        <v>0.1295746760023</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <v>0.905032709979849</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>0.0949672900201506</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>0.877048612628002</v>
+      </c>
+      <c r="H15" s="10" t="n">
+        <v>0.122951387371998</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <v>0.786736650295395</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>0.213263349704605</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>0.877835454392021</v>
+      </c>
+      <c r="H16" s="10" t="n">
+        <v>0.122164545607979</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D17" s="10" t="n">
+        <v>0.80526151851068</v>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>0.19473848148932</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>0.900256137304626</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>0.0997438626953737</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D18" s="10" t="n">
+        <v>0.930835029350614</v>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>0.0691649706493864</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>0.960387333268799</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>0.0396126667312013</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <v>0.99603566441017</v>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>0.00396433558983017</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>0.990078204736957</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>0.00992179526304285</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B20" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C20" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>0.996895578307542</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>0.00310442169245778</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>0.996997979206857</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>0.00300202079314314</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="13" t="n">
-        <v>0.997508318</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <v>0.002491682</v>
-      </c>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C21" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <v>0.387257023211442</v>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>0.612742976788558</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>0.61215496195822</v>
+      </c>
+      <c r="H21" s="10" t="n">
+        <v>0.38784503804178</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>0.402490304673362</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>0.597509695326638</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>0.31856016728378</v>
+      </c>
+      <c r="H22" s="10" t="n">
+        <v>0.68143983271622</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C23" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>0.413411383137547</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>0.586588616862453</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>0.325233570667081</v>
+      </c>
+      <c r="H23" s="10" t="n">
+        <v>0.674766429332919</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13" t="n">
-        <v>0.98646046</v>
-      </c>
-      <c r="E3" s="13" t="n">
-        <v>0.01353954</v>
-      </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C24" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>0.416748910778184</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>0.583251089221816</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>0.326279382583028</v>
+      </c>
+      <c r="H24" s="10" t="n">
+        <v>0.673720617416972</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C25" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>0.426522240214198</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>0.573477759785802</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>0.337805932868347</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>0.662194067131653</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>0.444939058999101</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>0.555060941000899</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>0.355187984213458</v>
+      </c>
+      <c r="H26" s="10" t="n">
+        <v>0.644812015786542</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D27" s="10" t="n">
+        <v>0.487422564308044</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>0.512577435691956</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>0.394613284420862</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>0.605386715579138</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D28" s="10" t="n">
+        <v>0.225793590918742</v>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>0.774206409081258</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>0.168910613079186</v>
+      </c>
+      <c r="H28" s="10" t="n">
+        <v>0.831089386920814</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D29" s="10" t="n">
+        <v>0.227225777065221</v>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>0.772774222934779</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>0.168972162571181</v>
+      </c>
+      <c r="H29" s="10" t="n">
+        <v>0.831027837428819</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D30" s="10" t="n">
+        <v>0.288914784940414</v>
+      </c>
+      <c r="E30" s="10" t="n">
+        <v>0.711085215059586</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>0.223407864741749</v>
+      </c>
+      <c r="H30" s="10" t="n">
+        <v>0.776592135258251</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D31" s="10" t="n">
+        <v>0.302240239113624</v>
+      </c>
+      <c r="E31" s="10" t="n">
+        <v>0.697759760886376</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G31" s="10" t="n">
+        <v>0.23334394105812</v>
+      </c>
+      <c r="H31" s="10" t="n">
+        <v>0.76665605894188</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="n">
-        <v>0.96671805</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>0.03328195</v>
-      </c>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C32" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D32" s="10" t="n">
+        <v>0.341030192784958</v>
+      </c>
+      <c r="E32" s="10" t="n">
+        <v>0.658969807215042</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G32" s="10" t="n">
+        <v>0.263870991925939</v>
+      </c>
+      <c r="H32" s="10" t="n">
+        <v>0.736129008074061</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D33" s="10" t="n">
+        <v>0.356533784489219</v>
+      </c>
+      <c r="E33" s="10" t="n">
+        <v>0.643466215510781</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G33" s="10" t="n">
+        <v>0.276162928147504</v>
+      </c>
+      <c r="H33" s="10" t="n">
+        <v>0.723837071852496</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <v>0.373992421308164</v>
+      </c>
+      <c r="E34" s="10" t="n">
+        <v>0.626007578691836</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G34" s="10" t="n">
+        <v>0.288642966468982</v>
+      </c>
+      <c r="H34" s="10" t="n">
+        <v>0.711357033531018</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="13" t="n">
-        <v>0.909960932</v>
-      </c>
-      <c r="E5" s="13" t="n">
-        <v>0.090039068</v>
-      </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>0.89910488</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>0.10089512</v>
-      </c>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="13" t="n">
-        <v>0.896373614</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>0.103626386</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="13" t="n">
-        <v>0.864260406</v>
-      </c>
-      <c r="E8" s="13" t="n">
-        <v>0.135739594</v>
-      </c>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>0.81469916</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>0.18530084</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>0.804467061</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0.195532939</v>
-      </c>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>0.69608796</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <v>0.30391204</v>
-      </c>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>0.650283407</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <v>0.349716593</v>
-      </c>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>859</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="13" t="n">
-        <v>0.577504073</v>
-      </c>
-      <c r="E13" s="13" t="n">
-        <v>0.422495927</v>
-      </c>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="13" t="n">
-        <v>0.564671494</v>
-      </c>
-      <c r="E14" s="13" t="n">
-        <v>0.435328506</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="13" t="n">
-        <v>0.550885052</v>
-      </c>
-      <c r="E15" s="13" t="n">
-        <v>0.449114948</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="13" t="n">
-        <v>0.547552092</v>
-      </c>
-      <c r="E16" s="13" t="n">
-        <v>0.452447908</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="13" t="n">
-        <v>0.532935449</v>
-      </c>
-      <c r="E17" s="13" t="n">
-        <v>0.467064551</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="13" t="n">
-        <v>0.515071539</v>
-      </c>
-      <c r="E18" s="13" t="n">
-        <v>0.484928461</v>
-      </c>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D19" s="13" t="n">
-        <v>0.455492329</v>
-      </c>
-      <c r="E19" s="13" t="n">
-        <v>0.544507671</v>
-      </c>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D20" s="13" t="n">
-        <v>0.45455772</v>
-      </c>
-      <c r="E20" s="13" t="n">
-        <v>0.54544228</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D21" s="13" t="n">
-        <v>0.434407026</v>
-      </c>
-      <c r="E21" s="13" t="n">
-        <v>0.565592974</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D22" s="13" t="n">
-        <v>0.41470207</v>
-      </c>
-      <c r="E22" s="13" t="n">
-        <v>0.58529793</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D23" s="13" t="n">
-        <v>0.388950228</v>
-      </c>
-      <c r="E23" s="13" t="n">
-        <v>0.611049772</v>
-      </c>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D24" s="13" t="n">
-        <v>0.361620299</v>
-      </c>
-      <c r="E24" s="13" t="n">
-        <v>0.638379701</v>
-      </c>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D25" s="13" t="n">
-        <v>0.347129588</v>
-      </c>
-      <c r="E25" s="13" t="n">
-        <v>0.652870412</v>
-      </c>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D26" s="13" t="n">
-        <v>0.335307318</v>
-      </c>
-      <c r="E26" s="13" t="n">
-        <v>0.664692682</v>
-      </c>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D27" s="13" t="n">
-        <v>0.330717431</v>
-      </c>
-      <c r="E27" s="13" t="n">
-        <v>0.669282569</v>
-      </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D28" s="13" t="n">
-        <v>0.31828932</v>
-      </c>
-      <c r="E28" s="13" t="n">
-        <v>0.68171068</v>
-      </c>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D29" s="13" t="n">
-        <v>0.269663185</v>
-      </c>
-      <c r="E29" s="13" t="n">
-        <v>0.730336815</v>
-      </c>
-      <c r="G29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D30" s="13" t="n">
-        <v>0.258781969</v>
-      </c>
-      <c r="E30" s="13" t="n">
-        <v>0.741218031</v>
-      </c>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D31" s="13" t="n">
-        <v>0.253676253</v>
-      </c>
-      <c r="E31" s="13" t="n">
-        <v>0.746323747</v>
-      </c>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D32" s="13" t="n">
-        <v>0.213668262</v>
-      </c>
-      <c r="E32" s="13" t="n">
-        <v>0.786331738</v>
-      </c>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D33" s="13" t="n">
-        <v>0.180958032</v>
-      </c>
-      <c r="E33" s="13" t="n">
-        <v>0.819041968</v>
-      </c>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D34" s="13" t="n">
-        <v>0.176736707</v>
-      </c>
-      <c r="E34" s="13" t="n">
-        <v>0.823263293</v>
-      </c>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D35" s="13" t="n">
-        <v>0.130381384</v>
-      </c>
-      <c r="E35" s="13" t="n">
-        <v>0.869618616</v>
-      </c>
-      <c r="G35" s="12"/>
+      <c r="C35" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>0.37250505075172</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>0.62749494924828</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G35" s="10" t="n">
+        <v>0.299380179124948</v>
+      </c>
+      <c r="H35" s="10" t="n">
+        <v>0.700619820875051</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E35"/>
+  <autoFilter ref="A1:H35"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Misc/Suppl. Table 1 - OverviewOfData.xlsx
+++ b/Misc/Suppl. Table 1 - OverviewOfData.xlsx
@@ -14,10 +14,11 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Mutual Exclusivity (Somatic)'!$A$2:$H$29</definedName>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Prediction!$A$1:$H$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Prediction!$A$1:$H$77</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Sample Information'!$A$1:$AD$156</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Sample Information'!$A$1:$V$156</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">#REF!</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Prediction!$A$1:$H$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3338" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1021">
   <si>
     <t xml:space="preserve">sampleId</t>
   </si>
@@ -3085,28 +3086,10 @@
     <t xml:space="preserve">p_genomicsWithClinVars_GoodResponder</t>
   </si>
   <si>
+    <t xml:space="preserve">Predicted - Bad Responder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ambiguous Prediction</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Predicted - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bad Responder</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Predicted - Good Responder</t>
@@ -3116,14 +3099,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="d\-mmm\-yy"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3168,12 +3152,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3286,7 +3264,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -17468,7 +17446,7 @@
       <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.17"/>
@@ -18240,10 +18218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18251,7 +18229,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="9.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="25.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="22.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="23.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="23.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="24.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="26.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="31.89"/>
@@ -18287,59 +18265,59 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>725</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>0.496363568594067</v>
-      </c>
-      <c r="E2" s="10" t="n">
-        <v>0.503636431405933</v>
+        <v>0.999933522762648</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>6.64772373519586E-005</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G2" s="10" t="n">
-        <v>0.408978599527077</v>
+        <v>0.999896114005842</v>
       </c>
       <c r="H2" s="10" t="n">
-        <v>0.591021400472923</v>
+        <v>0.00010388599415794</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>673</v>
+        <v>211</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>0.547895248661872</v>
+        <v>0.999081668168084</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.452104751338128</v>
+        <v>0.000918331831915537</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G3" s="10" t="n">
-        <v>0.459562270032153</v>
+        <v>0.99936734332849</v>
       </c>
       <c r="H3" s="10" t="n">
-        <v>0.540437729967847</v>
+        <v>0.000632656671509599</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>432</v>
@@ -18348,24 +18326,24 @@
         <v>1018</v>
       </c>
       <c r="D4" s="10" t="n">
-        <v>0.570532070286666</v>
+        <v>0.996895578307542</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.429467929713334</v>
+        <v>0.00310442169245778</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G4" s="10" t="n">
-        <v>0.483631658912777</v>
+        <v>0.996997979206857</v>
       </c>
       <c r="H4" s="10" t="n">
-        <v>0.516368341087223</v>
+        <v>0.00300202079314314</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>432</v>
@@ -18374,154 +18352,154 @@
         <v>1018</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>0.585631426242663</v>
+        <v>0.99603566441017</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.414368573757337</v>
+        <v>0.00396433558983017</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G5" s="10" t="n">
-        <v>0.487537013335777</v>
+        <v>0.990078204736957</v>
       </c>
       <c r="H5" s="10" t="n">
-        <v>0.512462986664223</v>
+        <v>0.00992179526304285</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>859</v>
+        <v>380</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>1019</v>
+        <v>36</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="D6" s="10" t="n">
-        <v>0.632336488692626</v>
+        <v>0.985209154244181</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.367663511307374</v>
+        <v>0.0147908457558187</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>0.510549056746082</v>
+        <v>0.984088666185004</v>
       </c>
       <c r="H6" s="10" t="n">
-        <v>0.489450943253918</v>
+        <v>0.0159113338149964</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D7" s="10" t="n">
-        <v>0.220863826666883</v>
+        <v>0.930835029350614</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.779136173333117</v>
+        <v>0.0691649706493864</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>0.411853001098443</v>
+        <v>0.960387333268799</v>
       </c>
       <c r="H7" s="10" t="n">
-        <v>0.588146998901556</v>
+        <v>0.0396126667312013</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>455</v>
+        <v>567</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D8" s="10" t="n">
-        <v>0.281752303275959</v>
+        <v>0.80526151851068</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.718247696724041</v>
+        <v>0.19473848148932</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G8" s="10" t="n">
-        <v>0.489218654963246</v>
+        <v>0.900256137304626</v>
       </c>
       <c r="H8" s="10" t="n">
-        <v>0.510781345036754</v>
+        <v>0.0997438626953737</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D9" s="10" t="n">
-        <v>0.302535014941915</v>
+        <v>0.786736650295395</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.697464985058085</v>
+        <v>0.213263349704605</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>0.520535310389909</v>
+        <v>0.877835454392021</v>
       </c>
       <c r="H9" s="10" t="n">
-        <v>0.479464689610091</v>
+        <v>0.122164545607979</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>542</v>
+        <v>350</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D10" s="10" t="n">
-        <v>0.317704722323526</v>
+        <v>0.905032709979849</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>0.682295277676474</v>
+        <v>0.0949672900201506</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="G10" s="10" t="n">
-        <v>0.535753738548132</v>
+        <v>0.877048612628002</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>0.464246261451868</v>
+        <v>0.122951387371998</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>432</v>
@@ -18530,647 +18508,1739 @@
         <v>1018</v>
       </c>
       <c r="D11" s="10" t="n">
-        <v>0.439526180833135</v>
+        <v>0.763113566876281</v>
       </c>
       <c r="E11" s="10" t="n">
-        <v>0.560473819166865</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>1019</v>
+        <v>0.236886433123719</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G11" s="10" t="n">
-        <v>0.660251391088595</v>
+        <v>0.870425323997699</v>
       </c>
       <c r="H11" s="10" t="n">
-        <v>0.339748608911405</v>
+        <v>0.1295746760023</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>112</v>
+        <v>444</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>1019</v>
+        <v>432</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="D12" s="10" t="n">
-        <v>0.816953009762842</v>
+        <v>0.704011655739848</v>
       </c>
       <c r="E12" s="10" t="n">
-        <v>0.183046990237158</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1019</v>
+        <v>0.295988344260152</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G12" s="10" t="n">
-        <v>0.7698551328205</v>
+        <v>0.845481839163603</v>
       </c>
       <c r="H12" s="10" t="n">
-        <v>0.2301448671795</v>
+        <v>0.154518160836397</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>1019</v>
+      <c r="C13" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>0.704011655739848</v>
+        <v>0.683116173247964</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>0.295988344260152</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>1019</v>
+        <v>0.316883826752036</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G13" s="10" t="n">
-        <v>0.845481839163603</v>
+        <v>0.844817772555933</v>
       </c>
       <c r="H13" s="10" t="n">
-        <v>0.154518160836397</v>
+        <v>0.155182227444067</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>1019</v>
+        <v>580</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>0.763113566876281</v>
+        <v>0.679347370577484</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>0.236886433123719</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>1019</v>
+        <v>0.320652629422516</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G14" s="10" t="n">
-        <v>0.870425323997699</v>
+        <v>0.817095310085908</v>
       </c>
       <c r="H14" s="10" t="n">
-        <v>0.1295746760023</v>
+        <v>0.182904689914092</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>0.905032709979849</v>
+        <v>0.58504515083742</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>0.0949672900201506</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>1019</v>
+        <v>0.41495484916258</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G15" s="10" t="n">
-        <v>0.877048612628002</v>
+        <v>0.77879773606911</v>
       </c>
       <c r="H15" s="10" t="n">
-        <v>0.122951387371998</v>
+        <v>0.22120226393089</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>531</v>
+        <v>112</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>1019</v>
+        <v>36</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0.786736650295395</v>
+        <v>0.816953009762842</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>0.213263349704605</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>1019</v>
+        <v>0.183046990237158</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G16" s="10" t="n">
-        <v>0.877835454392021</v>
+        <v>0.7698551328205</v>
       </c>
       <c r="H16" s="10" t="n">
-        <v>0.122164545607979</v>
+        <v>0.2301448671795</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>567</v>
+        <v>345</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>0.80526151851068</v>
+        <v>0.530524650152012</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>0.19473848148932</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>1019</v>
+        <v>0.469475349847988</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G17" s="10" t="n">
-        <v>0.900256137304626</v>
+        <v>0.721328515030384</v>
       </c>
       <c r="H17" s="10" t="n">
-        <v>0.0997438626953737</v>
+        <v>0.278671484969616</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>467</v>
+        <v>386</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>1019</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>0.930835029350614</v>
+        <v>0.757247228075295</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>0.0691649706493864</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>1019</v>
+        <v>0.242752771924705</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G18" s="10" t="n">
-        <v>0.960387333268799</v>
+        <v>0.691353884837552</v>
       </c>
       <c r="H18" s="10" t="n">
-        <v>0.0396126667312013</v>
+        <v>0.308646115162448</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>537</v>
+        <v>649</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>1019</v>
+        <v>580</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>0.99603566441017</v>
+        <v>0.796137312695074</v>
       </c>
       <c r="E19" s="10" t="n">
-        <v>0.00396433558983017</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>1019</v>
+        <v>0.203862687304926</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G19" s="10" t="n">
-        <v>0.990078204736957</v>
+        <v>0.683479668600711</v>
       </c>
       <c r="H19" s="10" t="n">
-        <v>0.00992179526304285</v>
+        <v>0.316520331399289</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>0.996895578307542</v>
+        <v>0.439526180833135</v>
       </c>
       <c r="E20" s="10" t="n">
-        <v>0.00310442169245778</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>1019</v>
+        <v>0.560473819166865</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G20" s="10" t="n">
-        <v>0.996997979206857</v>
+        <v>0.660251391088595</v>
       </c>
       <c r="H20" s="10" t="n">
-        <v>0.00300202079314314</v>
+        <v>0.339748608911405</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>0.387257023211442</v>
+        <v>0.429622365919388</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>0.612742976788558</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>1019</v>
+        <v>0.570377634080612</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>1018</v>
       </c>
       <c r="G21" s="10" t="n">
-        <v>0.61215496195822</v>
+        <v>0.650723707040763</v>
       </c>
       <c r="H21" s="10" t="n">
-        <v>0.38784503804178</v>
+        <v>0.349276292959237</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>597</v>
+        <v>489</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>0.436240267274422</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>0.563759732725578</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="D22" s="10" t="n">
-        <v>0.402490304673362</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>0.597509695326638</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>1020</v>
-      </c>
       <c r="G22" s="10" t="n">
-        <v>0.31856016728378</v>
+        <v>0.649940735743705</v>
       </c>
       <c r="H22" s="10" t="n">
-        <v>0.68143983271622</v>
+        <v>0.350059264256295</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>554</v>
+        <v>155</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="D23" s="10" t="n">
-        <v>0.413411383137547</v>
+        <v>0.752603009214571</v>
       </c>
       <c r="E23" s="10" t="n">
-        <v>0.586588616862453</v>
+        <v>0.247396990785429</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G23" s="10" t="n">
-        <v>0.325233570667081</v>
+        <v>0.648630185942975</v>
       </c>
       <c r="H23" s="10" t="n">
-        <v>0.674766429332919</v>
+        <v>0.351369814057025</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>334</v>
+        <v>837</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>36</v>
+        <v>580</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>1018</v>
       </c>
       <c r="D24" s="10" t="n">
-        <v>0.416748910778184</v>
+        <v>0.719368355545988</v>
       </c>
       <c r="E24" s="10" t="n">
-        <v>0.583251089221816</v>
+        <v>0.280631644454012</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G24" s="10" t="n">
-        <v>0.326279382583028</v>
+        <v>0.626406131919295</v>
       </c>
       <c r="H24" s="10" t="n">
-        <v>0.673720617416972</v>
+        <v>0.373593868080704</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>0.387257023211442</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>0.612742976788558</v>
+      </c>
+      <c r="F25" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="D25" s="10" t="n">
-        <v>0.426522240214198</v>
-      </c>
-      <c r="E25" s="10" t="n">
-        <v>0.573477759785802</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>1020</v>
-      </c>
       <c r="G25" s="10" t="n">
-        <v>0.337805932868347</v>
+        <v>0.61215496195822</v>
       </c>
       <c r="H25" s="10" t="n">
-        <v>0.662194067131653</v>
+        <v>0.38784503804178</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>519</v>
+        <v>92</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>432</v>
+        <v>36</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D26" s="10" t="n">
+        <v>0.379791498613469</v>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>0.620208501386531</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="D26" s="10" t="n">
-        <v>0.444939058999101</v>
-      </c>
-      <c r="E26" s="10" t="n">
-        <v>0.555060941000899</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>1020</v>
-      </c>
       <c r="G26" s="10" t="n">
-        <v>0.355187984213458</v>
+        <v>0.603367977278055</v>
       </c>
       <c r="H26" s="10" t="n">
-        <v>0.644812015786542</v>
+        <v>0.396632022721946</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>703</v>
+        <v>949</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>580</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>0.487422564308044</v>
+        <v>0.385098665622421</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>0.512577435691956</v>
+        <v>0.614901334377579</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G27" s="10" t="n">
-        <v>0.394613284420862</v>
+        <v>0.599615620486961</v>
       </c>
       <c r="H27" s="10" t="n">
-        <v>0.605386715579138</v>
+        <v>0.400384379513039</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>765</v>
+        <v>501</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>1020</v>
       </c>
       <c r="D28" s="10" t="n">
-        <v>0.225793590918742</v>
+        <v>0.363310824342924</v>
       </c>
       <c r="E28" s="10" t="n">
-        <v>0.774206409081258</v>
+        <v>0.636689175657076</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G28" s="10" t="n">
-        <v>0.168910613079186</v>
+        <v>0.588452228925252</v>
       </c>
       <c r="H28" s="10" t="n">
-        <v>0.831089386920814</v>
+        <v>0.411547771074748</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
-        <v>753</v>
+        <v>180</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D29" s="10" t="n">
-        <v>0.227225777065221</v>
+        <v>0.693938430691639</v>
       </c>
       <c r="E29" s="10" t="n">
-        <v>0.772774222934779</v>
+        <v>0.306061569308361</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G29" s="10" t="n">
-        <v>0.168972162571181</v>
+        <v>0.570065366887833</v>
       </c>
       <c r="H29" s="10" t="n">
-        <v>0.831027837428819</v>
+        <v>0.429934633112167</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>525</v>
+        <v>643</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D30" s="10" t="n">
-        <v>0.288914784940414</v>
+        <v>0.623867193135186</v>
       </c>
       <c r="E30" s="10" t="n">
-        <v>0.711085215059586</v>
+        <v>0.376132806864814</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G30" s="10" t="n">
-        <v>0.223407864741749</v>
+        <v>0.54143082031331</v>
       </c>
       <c r="H30" s="10" t="n">
-        <v>0.776592135258251</v>
+        <v>0.45856917968669</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
-        <v>820</v>
+        <v>542</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>1020</v>
       </c>
       <c r="D31" s="10" t="n">
-        <v>0.302240239113624</v>
+        <v>0.317704722323526</v>
       </c>
       <c r="E31" s="10" t="n">
-        <v>0.697759760886376</v>
+        <v>0.682295277676474</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G31" s="10" t="n">
-        <v>0.23334394105812</v>
+        <v>0.535753738548132</v>
       </c>
       <c r="H31" s="10" t="n">
-        <v>0.76665605894188</v>
+        <v>0.464246261451868</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>367</v>
+        <v>513</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>36</v>
+        <v>432</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>1020</v>
       </c>
       <c r="D32" s="10" t="n">
-        <v>0.341030192784958</v>
+        <v>0.307137459047958</v>
       </c>
       <c r="E32" s="10" t="n">
-        <v>0.658969807215042</v>
+        <v>0.692862540952042</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G32" s="10" t="n">
-        <v>0.263870991925939</v>
+        <v>0.521232982857178</v>
       </c>
       <c r="H32" s="10" t="n">
-        <v>0.736129008074061</v>
+        <v>0.478767017142822</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>580</v>
+        <v>432</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>1020</v>
       </c>
       <c r="D33" s="10" t="n">
-        <v>0.356533784489219</v>
+        <v>0.302535014941915</v>
       </c>
       <c r="E33" s="10" t="n">
-        <v>0.643466215510781</v>
+        <v>0.697464985058085</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G33" s="10" t="n">
-        <v>0.276162928147504</v>
+        <v>0.520535310389909</v>
       </c>
       <c r="H33" s="10" t="n">
-        <v>0.723837071852496</v>
+        <v>0.479464689610091</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>73</v>
+        <v>859</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>36</v>
+        <v>580</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D34" s="10" t="n">
-        <v>0.373992421308164</v>
+        <v>0.632336488692626</v>
       </c>
       <c r="E34" s="10" t="n">
-        <v>0.626007578691836</v>
+        <v>0.367663511307374</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G34" s="10" t="n">
-        <v>0.288642966468982</v>
+        <v>0.510549056746082</v>
       </c>
       <c r="H34" s="10" t="n">
-        <v>0.711357033531018</v>
+        <v>0.489450943253918</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <v>0.589423584947738</v>
+      </c>
+      <c r="E35" s="10" t="n">
+        <v>0.410576415052262</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G35" s="10" t="n">
+        <v>0.489277927903735</v>
+      </c>
+      <c r="H35" s="10" t="n">
+        <v>0.510722072096265</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D36" s="10" t="n">
+        <v>0.281752303275959</v>
+      </c>
+      <c r="E36" s="10" t="n">
+        <v>0.718247696724041</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G36" s="10" t="n">
+        <v>0.489218654963246</v>
+      </c>
+      <c r="H36" s="10" t="n">
+        <v>0.510781345036754</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <v>0.585631426242663</v>
+      </c>
+      <c r="E37" s="10" t="n">
+        <v>0.414368573757337</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G37" s="10" t="n">
+        <v>0.487537013335777</v>
+      </c>
+      <c r="H37" s="10" t="n">
+        <v>0.512462986664223</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <v>0.570532070286666</v>
+      </c>
+      <c r="E38" s="10" t="n">
+        <v>0.429467929713334</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G38" s="10" t="n">
+        <v>0.483631658912777</v>
+      </c>
+      <c r="H38" s="10" t="n">
+        <v>0.516368341087223</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <v>0.569801472112438</v>
+      </c>
+      <c r="E39" s="10" t="n">
+        <v>0.430198527887562</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G39" s="10" t="n">
+        <v>0.48066525955183</v>
+      </c>
+      <c r="H39" s="10" t="n">
+        <v>0.51933474044817</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <v>0.547895248661872</v>
+      </c>
+      <c r="E40" s="10" t="n">
+        <v>0.452104751338128</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G40" s="10" t="n">
+        <v>0.459562270032153</v>
+      </c>
+      <c r="H40" s="10" t="n">
+        <v>0.540437729967847</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D41" s="10" t="n">
+        <v>0.571976592116057</v>
+      </c>
+      <c r="E41" s="10" t="n">
+        <v>0.428023407883943</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G41" s="10" t="n">
+        <v>0.454636822007967</v>
+      </c>
+      <c r="H41" s="10" t="n">
+        <v>0.545363177992033</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D42" s="10" t="n">
+        <v>0.23378480700505</v>
+      </c>
+      <c r="E42" s="10" t="n">
+        <v>0.76621519299495</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>0.4342279762647</v>
+      </c>
+      <c r="H42" s="10" t="n">
+        <v>0.5657720237353</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D43" s="10" t="n">
+        <v>0.230988638218531</v>
+      </c>
+      <c r="E43" s="10" t="n">
+        <v>0.769011361781469</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G43" s="10" t="n">
+        <v>0.430973272675537</v>
+      </c>
+      <c r="H43" s="10" t="n">
+        <v>0.569026727324463</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D44" s="10" t="n">
+        <v>0.220863826666883</v>
+      </c>
+      <c r="E44" s="10" t="n">
+        <v>0.779136173333117</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G44" s="10" t="n">
+        <v>0.411853001098443</v>
+      </c>
+      <c r="H44" s="10" t="n">
+        <v>0.588146998901556</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D45" s="10" t="n">
+        <v>0.510607121165848</v>
+      </c>
+      <c r="E45" s="10" t="n">
+        <v>0.489392878834152</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G45" s="10" t="n">
+        <v>0.409459146940732</v>
+      </c>
+      <c r="H45" s="10" t="n">
+        <v>0.590540853059268</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D46" s="10" t="n">
+        <v>0.496363568594067</v>
+      </c>
+      <c r="E46" s="10" t="n">
+        <v>0.503636431405933</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G46" s="10" t="n">
+        <v>0.408978599527077</v>
+      </c>
+      <c r="H46" s="10" t="n">
+        <v>0.591021400472923</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D47" s="10" t="n">
+        <v>0.487422564308044</v>
+      </c>
+      <c r="E47" s="10" t="n">
+        <v>0.512577435691956</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G47" s="10" t="n">
+        <v>0.394613284420862</v>
+      </c>
+      <c r="H47" s="10" t="n">
+        <v>0.605386715579138</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D48" s="10" t="n">
+        <v>0.489143471997742</v>
+      </c>
+      <c r="E48" s="10" t="n">
+        <v>0.510856528002258</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G48" s="10" t="n">
+        <v>0.391270732145089</v>
+      </c>
+      <c r="H48" s="10" t="n">
+        <v>0.608729267854911</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D49" s="10" t="n">
+        <v>0.478302593997382</v>
+      </c>
+      <c r="E49" s="10" t="n">
+        <v>0.521697406002618</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G49" s="10" t="n">
+        <v>0.388043021013962</v>
+      </c>
+      <c r="H49" s="10" t="n">
+        <v>0.611956978986038</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D50" s="10" t="n">
+        <v>0.453984896341434</v>
+      </c>
+      <c r="E50" s="10" t="n">
+        <v>0.546015103658566</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G50" s="10" t="n">
+        <v>0.368823031544926</v>
+      </c>
+      <c r="H50" s="10" t="n">
+        <v>0.631176968455074</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D51" s="10" t="n">
+        <v>0.444939058999101</v>
+      </c>
+      <c r="E51" s="10" t="n">
+        <v>0.555060941000899</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G51" s="10" t="n">
+        <v>0.355187984213458</v>
+      </c>
+      <c r="H51" s="10" t="n">
+        <v>0.644812015786542</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D52" s="10" t="n">
+        <v>0.426522240214198</v>
+      </c>
+      <c r="E52" s="10" t="n">
+        <v>0.573477759785802</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G52" s="10" t="n">
+        <v>0.337805932868347</v>
+      </c>
+      <c r="H52" s="10" t="n">
+        <v>0.662194067131653</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D53" s="10" t="n">
+        <v>0.416748910778184</v>
+      </c>
+      <c r="E53" s="10" t="n">
+        <v>0.583251089221816</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G53" s="10" t="n">
+        <v>0.326279382583028</v>
+      </c>
+      <c r="H53" s="10" t="n">
+        <v>0.673720617416972</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D54" s="10" t="n">
+        <v>0.413411383137547</v>
+      </c>
+      <c r="E54" s="10" t="n">
+        <v>0.586588616862453</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G54" s="10" t="n">
+        <v>0.325233570667081</v>
+      </c>
+      <c r="H54" s="10" t="n">
+        <v>0.674766429332919</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D55" s="10" t="n">
+        <v>0.402490304673362</v>
+      </c>
+      <c r="E55" s="10" t="n">
+        <v>0.597509695326638</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G55" s="10" t="n">
+        <v>0.31856016728378</v>
+      </c>
+      <c r="H55" s="10" t="n">
+        <v>0.68143983271622</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D56" s="10" t="n">
+        <v>0.39841795748836</v>
+      </c>
+      <c r="E56" s="10" t="n">
+        <v>0.60158204251164</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G56" s="10" t="n">
+        <v>0.313601669862125</v>
+      </c>
+      <c r="H56" s="10" t="n">
+        <v>0.686398330137875</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D57" s="10" t="n">
         <v>0.37250505075172</v>
       </c>
-      <c r="E35" s="10" t="n">
+      <c r="E57" s="10" t="n">
         <v>0.62749494924828</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F57" s="10" t="s">
         <v>1020</v>
       </c>
-      <c r="G35" s="10" t="n">
+      <c r="G57" s="10" t="n">
         <v>0.299380179124948</v>
       </c>
-      <c r="H35" s="10" t="n">
+      <c r="H57" s="10" t="n">
         <v>0.700619820875051</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D58" s="10" t="n">
+        <v>0.376582499986623</v>
+      </c>
+      <c r="E58" s="10" t="n">
+        <v>0.623417500013377</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G58" s="10" t="n">
+        <v>0.298300873343989</v>
+      </c>
+      <c r="H58" s="10" t="n">
+        <v>0.701699126656011</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D59" s="10" t="n">
+        <v>0.369709271939106</v>
+      </c>
+      <c r="E59" s="10" t="n">
+        <v>0.630290728060894</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G59" s="10" t="n">
+        <v>0.288765204872389</v>
+      </c>
+      <c r="H59" s="10" t="n">
+        <v>0.711234795127611</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D60" s="10" t="n">
+        <v>0.373992421308164</v>
+      </c>
+      <c r="E60" s="10" t="n">
+        <v>0.626007578691836</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G60" s="10" t="n">
+        <v>0.288642966468982</v>
+      </c>
+      <c r="H60" s="10" t="n">
+        <v>0.711357033531018</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D61" s="10" t="n">
+        <v>0.371957242897144</v>
+      </c>
+      <c r="E61" s="10" t="n">
+        <v>0.628042757102856</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G61" s="10" t="n">
+        <v>0.279505687035295</v>
+      </c>
+      <c r="H61" s="10" t="n">
+        <v>0.720494312964705</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D62" s="10" t="n">
+        <v>0.356533784489219</v>
+      </c>
+      <c r="E62" s="10" t="n">
+        <v>0.643466215510781</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G62" s="10" t="n">
+        <v>0.276162928147504</v>
+      </c>
+      <c r="H62" s="10" t="n">
+        <v>0.723837071852496</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D63" s="10" t="n">
+        <v>0.350081150057759</v>
+      </c>
+      <c r="E63" s="10" t="n">
+        <v>0.649918849942241</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G63" s="10" t="n">
+        <v>0.270405083855193</v>
+      </c>
+      <c r="H63" s="10" t="n">
+        <v>0.729594916144807</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D64" s="10" t="n">
+        <v>0.350223797576707</v>
+      </c>
+      <c r="E64" s="10" t="n">
+        <v>0.649776202423293</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G64" s="10" t="n">
+        <v>0.268928020425201</v>
+      </c>
+      <c r="H64" s="10" t="n">
+        <v>0.731071979574799</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D65" s="10" t="n">
+        <v>0.341030192784958</v>
+      </c>
+      <c r="E65" s="10" t="n">
+        <v>0.658969807215042</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G65" s="10" t="n">
+        <v>0.263870991925939</v>
+      </c>
+      <c r="H65" s="10" t="n">
+        <v>0.736129008074061</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D66" s="10" t="n">
+        <v>0.332968098326489</v>
+      </c>
+      <c r="E66" s="10" t="n">
+        <v>0.667031901673511</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G66" s="10" t="n">
+        <v>0.254966817144196</v>
+      </c>
+      <c r="H66" s="10" t="n">
+        <v>0.745033182855804</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D67" s="10" t="n">
+        <v>0.313581513553627</v>
+      </c>
+      <c r="E67" s="10" t="n">
+        <v>0.686418486446373</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G67" s="10" t="n">
+        <v>0.242580775627648</v>
+      </c>
+      <c r="H67" s="10" t="n">
+        <v>0.757419224372352</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D68" s="10" t="n">
+        <v>0.313343473123093</v>
+      </c>
+      <c r="E68" s="10" t="n">
+        <v>0.686656526876907</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G68" s="10" t="n">
+        <v>0.240430044414805</v>
+      </c>
+      <c r="H68" s="10" t="n">
+        <v>0.759569955585195</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D69" s="10" t="n">
+        <v>0.302240239113624</v>
+      </c>
+      <c r="E69" s="10" t="n">
+        <v>0.697759760886376</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G69" s="10" t="n">
+        <v>0.23334394105812</v>
+      </c>
+      <c r="H69" s="10" t="n">
+        <v>0.76665605894188</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D70" s="10" t="n">
+        <v>0.288914784940414</v>
+      </c>
+      <c r="E70" s="10" t="n">
+        <v>0.711085215059586</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G70" s="10" t="n">
+        <v>0.223407864741749</v>
+      </c>
+      <c r="H70" s="10" t="n">
+        <v>0.776592135258251</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D71" s="10" t="n">
+        <v>0.289071491549312</v>
+      </c>
+      <c r="E71" s="10" t="n">
+        <v>0.710928508450688</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G71" s="10" t="n">
+        <v>0.220435404851848</v>
+      </c>
+      <c r="H71" s="10" t="n">
+        <v>0.779564595148152</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D72" s="10" t="n">
+        <v>0.280849418185904</v>
+      </c>
+      <c r="E72" s="10" t="n">
+        <v>0.719150581814096</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G72" s="10" t="n">
+        <v>0.215265108771559</v>
+      </c>
+      <c r="H72" s="10" t="n">
+        <v>0.784734891228441</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D73" s="10" t="n">
+        <v>0.276366192002327</v>
+      </c>
+      <c r="E73" s="10" t="n">
+        <v>0.723633807997673</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G73" s="10" t="n">
+        <v>0.209945065901473</v>
+      </c>
+      <c r="H73" s="10" t="n">
+        <v>0.790054934098527</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D74" s="10" t="n">
+        <v>0.266304425001165</v>
+      </c>
+      <c r="E74" s="10" t="n">
+        <v>0.733695574998835</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G74" s="10" t="n">
+        <v>0.202547643525345</v>
+      </c>
+      <c r="H74" s="10" t="n">
+        <v>0.797452356474655</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D75" s="10" t="n">
+        <v>0.263427290990307</v>
+      </c>
+      <c r="E75" s="10" t="n">
+        <v>0.736572709009693</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G75" s="10" t="n">
+        <v>0.199990659750203</v>
+      </c>
+      <c r="H75" s="10" t="n">
+        <v>0.800009340249797</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D76" s="10" t="n">
+        <v>0.227225777065221</v>
+      </c>
+      <c r="E76" s="10" t="n">
+        <v>0.772774222934779</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G76" s="10" t="n">
+        <v>0.168972162571181</v>
+      </c>
+      <c r="H76" s="10" t="n">
+        <v>0.831027837428819</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D77" s="10" t="n">
+        <v>0.225793590918742</v>
+      </c>
+      <c r="E77" s="10" t="n">
+        <v>0.774206409081258</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G77" s="10" t="n">
+        <v>0.168910613079186</v>
+      </c>
+      <c r="H77" s="10" t="n">
+        <v>0.831089386920814</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H35"/>
+  <autoFilter ref="A1:H77"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
